--- a/StructureDefinition-ext-R5-Condition.participant.xlsx
+++ b/StructureDefinition-ext-R5-Condition.participant.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Condition.participant` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Condition.participant` is mapped to FHIR R4 structure `Condition`, but has no target element specified.</t>
+Element `Condition.participant` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Condition</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Condition.participant.function` is part of an existing definition because parent element `Condition.participant` requires a cross-version extension.
-Element `Condition.participant.function` is mapped to FHIR R4 structure `Condition`, but has no target element specified.</t>
+Element `Condition.participant.function` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Extension.extension:function.id</t>
@@ -428,7 +428,8 @@
   </si>
   <si>
     <t>Element `Condition.participant.actor` is part of an existing definition because parent element `Condition.participant` requires a cross-version extension.
-Element `Condition.participant.actor` is mapped to FHIR R4 structure `Condition`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Condition.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Condition.participant.actor` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Extension.extension:actor.id</t>
@@ -794,7 +795,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="125.03125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="193.68359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Condition.participant.xlsx
+++ b/StructureDefinition-ext-R5-Condition.participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Condition.participant` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Condition.participant` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
+Element `Condition.participant` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Condition.participant.function` is part of an existing definition because parent element `Condition.participant` requires a cross-version extension.
-Element `Condition.participant.function` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
+Element `Condition.participant.function` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Extension.extension:function.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant.function</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -429,7 +432,7 @@
   <si>
     <t>Element `Condition.participant.actor` is part of an existing definition because parent element `Condition.participant` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Condition.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Condition.participant.actor` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
+Element `Condition.participant.actor` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Extension.extension:actor.id</t>
@@ -439,6 +442,9 @@
   </si>
   <si>
     <t>Extension.extension:actor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant.actor</t>
   </si>
   <si>
     <t>Extension.extension:actor.value[x]</t>
@@ -1601,7 +1607,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1643,7 +1649,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1658,15 +1664,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1689,7 +1695,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1722,11 +1728,11 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1744,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1756,21 +1762,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1795,14 +1801,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1871,7 +1877,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1974,7 +1980,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2079,7 +2085,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2122,7 +2128,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2164,7 +2170,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2179,15 +2185,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2210,13 +2216,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2267,7 +2273,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2279,18 +2285,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2372,7 +2378,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2387,15 +2393,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2418,13 +2424,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2475,7 +2481,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2487,10 +2493,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Condition.participant.xlsx
+++ b/StructureDefinition-ext-R5-Condition.participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,12 +403,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-participation-role-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -450,7 +444,7 @@
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -812,7 +806,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.59375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1728,29 +1722,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1762,7 +1758,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1770,13 +1766,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1801,14 +1797,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1877,7 +1873,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1980,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2085,7 +2081,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2128,7 +2124,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2190,7 +2186,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2216,13 +2212,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2273,7 +2269,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2285,7 +2281,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2398,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2424,13 +2420,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2481,7 +2477,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2493,7 +2489,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-Condition.participant.xlsx
+++ b/StructureDefinition-ext-R5-Condition.participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="140">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Distinguishes the type of involvement of the actor in the activities related to the condition.</t>
   </si>
   <si>
-    <t>Element `Condition.participant.function` is part of an existing definition because parent element `Condition.participant` requires a cross-version extension.
-Element `Condition.participant.function` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
+    <t>Element `Condition.participant.function` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t>Extension.extension:function.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant.function</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -405,6 +401,12 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -424,8 +426,7 @@
     <t>Indicates who or what participated in the activities related to the condition.</t>
   </si>
   <si>
-    <t>Element `Condition.participant.actor` is part of an existing definition because parent element `Condition.participant` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Condition.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Condition.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Condition.participant.actor` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
@@ -438,13 +439,10 @@
     <t>Extension.extension:actor.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant.actor</t>
-  </si>
-  <si>
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -806,7 +804,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.26171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1601,72 +1599,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1689,7 +1687,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1722,13 +1720,11 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1746,7 +1742,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1758,21 +1754,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1797,14 +1793,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1873,7 +1869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1976,7 +1972,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2081,7 +2077,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2124,7 +2120,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2166,22 +2162,22 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -2189,7 +2185,7 @@
         <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2215,10 +2211,10 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2269,7 +2265,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2281,18 +2277,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2374,30 +2370,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2477,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2489,10 +2485,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
